--- a/team_specific_matrix/Southern Ill._A.xlsx
+++ b/team_specific_matrix/Southern Ill._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1528384279475982</v>
+        <v>0.1690647482014389</v>
       </c>
       <c r="C2">
-        <v>0.6768558951965066</v>
+        <v>0.6510791366906474</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01746724890829694</v>
+        <v>0.01438848920863309</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.09606986899563319</v>
+        <v>0.1007194244604317</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.05676855895196507</v>
+        <v>0.06474820143884892</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03680981595092025</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03067484662576687</v>
+        <v>0.03125</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7852760736196319</v>
+        <v>0.78125</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.147239263803681</v>
+        <v>0.1458333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03333333333333333</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5333333333333333</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.4333333333333333</v>
+        <v>0.3714285714285714</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03517587939698492</v>
+        <v>0.04803493449781659</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.004366812227074236</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06030150753768844</v>
+        <v>0.0611353711790393</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3015075376884422</v>
+        <v>0.2969432314410481</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02010050251256281</v>
+        <v>0.01746724890829694</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.185929648241206</v>
+        <v>0.1834061135371179</v>
       </c>
       <c r="R6">
-        <v>0.07537688442211055</v>
+        <v>0.07860262008733625</v>
       </c>
       <c r="S6">
-        <v>0.321608040201005</v>
+        <v>0.3100436681222707</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1320754716981132</v>
+        <v>0.138121546961326</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.006289308176100629</v>
+        <v>0.005524861878453038</v>
       </c>
       <c r="E7">
-        <v>0.006289308176100629</v>
+        <v>0.005524861878453038</v>
       </c>
       <c r="F7">
-        <v>0.07547169811320754</v>
+        <v>0.08287292817679558</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.119496855345912</v>
+        <v>0.1104972375690608</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02515723270440252</v>
+        <v>0.02209944751381215</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1509433962264151</v>
+        <v>0.1602209944751381</v>
       </c>
       <c r="R7">
-        <v>0.06289308176100629</v>
+        <v>0.06629834254143646</v>
       </c>
       <c r="S7">
-        <v>0.4213836477987422</v>
+        <v>0.4088397790055249</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1085858585858586</v>
+        <v>0.1074561403508772</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01767676767676768</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="E8">
-        <v>0.0101010101010101</v>
+        <v>0.008771929824561403</v>
       </c>
       <c r="F8">
-        <v>0.05555555555555555</v>
+        <v>0.05701754385964912</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08585858585858586</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01515151515151515</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1767676767676768</v>
+        <v>0.1776315789473684</v>
       </c>
       <c r="R8">
-        <v>0.1111111111111111</v>
+        <v>0.1140350877192982</v>
       </c>
       <c r="S8">
-        <v>0.4191919191919192</v>
+        <v>0.4210526315789473</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1111111111111111</v>
+        <v>0.1029411764705882</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1025641025641026</v>
+        <v>0.1029411764705882</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1111111111111111</v>
+        <v>0.1029411764705882</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.008547008547008548</v>
+        <v>0.007352941176470588</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1709401709401709</v>
+        <v>0.1838235294117647</v>
       </c>
       <c r="R9">
-        <v>0.06837606837606838</v>
+        <v>0.08088235294117647</v>
       </c>
       <c r="S9">
-        <v>0.4273504273504273</v>
+        <v>0.4191176470588235</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1129707112970711</v>
+        <v>0.1129452649869679</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02405857740585774</v>
+        <v>0.02258905299739357</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.0008688097306689834</v>
       </c>
       <c r="F10">
-        <v>0.07217573221757322</v>
+        <v>0.0686359687228497</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09100418410041841</v>
+        <v>0.09817549956559514</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01673640167364017</v>
+        <v>0.01824500434404865</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.202928870292887</v>
+        <v>0.2067767158992181</v>
       </c>
       <c r="R10">
-        <v>0.09623430962343096</v>
+        <v>0.09643788010425716</v>
       </c>
       <c r="S10">
-        <v>0.3838912133891214</v>
+        <v>0.3753258036490009</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1456692913385827</v>
+        <v>0.1398601398601399</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1181102362204724</v>
+        <v>0.1188811188811189</v>
       </c>
       <c r="K11">
-        <v>0.1889763779527559</v>
+        <v>0.1853146853146853</v>
       </c>
       <c r="L11">
-        <v>0.5354330708661418</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01181102362204724</v>
+        <v>0.01048951048951049</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7553956834532374</v>
+        <v>0.7295597484276729</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2014388489208633</v>
+        <v>0.2264150943396226</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.03597122302158273</v>
+        <v>0.03144654088050314</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.007194244604316547</v>
+        <v>0.01257861635220126</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.575</v>
+        <v>0.6326530612244898</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.375</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05</v>
+        <v>0.04081632653061224</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03061224489795918</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1887755102040816</v>
+        <v>0.1861471861471861</v>
       </c>
       <c r="I15">
-        <v>0.08673469387755102</v>
+        <v>0.07792207792207792</v>
       </c>
       <c r="J15">
-        <v>0.2908163265306122</v>
+        <v>0.3203463203463203</v>
       </c>
       <c r="K15">
-        <v>0.07142857142857142</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.00510204081632653</v>
+        <v>0.008658008658008658</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1071428571428571</v>
+        <v>0.09956709956709957</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2193877551020408</v>
+        <v>0.2121212121212121</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0303030303030303</v>
+        <v>0.02538071065989848</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2</v>
+        <v>0.2182741116751269</v>
       </c>
       <c r="I16">
-        <v>0.04848484848484848</v>
+        <v>0.05076142131979695</v>
       </c>
       <c r="J16">
-        <v>0.3757575757575757</v>
+        <v>0.3705583756345178</v>
       </c>
       <c r="K16">
-        <v>0.1333333333333333</v>
+        <v>0.1218274111675127</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02424242424242424</v>
+        <v>0.03045685279187817</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07878787878787878</v>
+        <v>0.07614213197969544</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1090909090909091</v>
+        <v>0.1065989847715736</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03225806451612903</v>
+        <v>0.0267639902676399</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2375366568914956</v>
+        <v>0.218978102189781</v>
       </c>
       <c r="I17">
-        <v>0.05571847507331378</v>
+        <v>0.06569343065693431</v>
       </c>
       <c r="J17">
-        <v>0.3958944281524927</v>
+        <v>0.413625304136253</v>
       </c>
       <c r="K17">
-        <v>0.09970674486803519</v>
+        <v>0.1070559610705596</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02346041055718475</v>
+        <v>0.0194647201946472</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05571847507331378</v>
+        <v>0.05596107055961071</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09970674486803519</v>
+        <v>0.09245742092457421</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,22 +1454,22 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.005882352941176471</v>
+        <v>0.004901960784313725</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1823529411764706</v>
+        <v>0.196078431372549</v>
       </c>
       <c r="I18">
-        <v>0.1</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="J18">
-        <v>0.3294117647058823</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K18">
-        <v>0.1411764705882353</v>
+        <v>0.1323529411764706</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1176470588235294</v>
+        <v>0.1274509803921569</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09411764705882353</v>
+        <v>0.09313725490196079</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02169421487603306</v>
+        <v>0.0231935771632471</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2262396694214876</v>
+        <v>0.2185548617305977</v>
       </c>
       <c r="I19">
-        <v>0.05888429752066116</v>
+        <v>0.05798394290811775</v>
       </c>
       <c r="J19">
-        <v>0.378099173553719</v>
+        <v>0.3853702051739518</v>
       </c>
       <c r="K19">
-        <v>0.1074380165289256</v>
+        <v>0.1034790365744871</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02892561983471074</v>
+        <v>0.0312221231043711</v>
       </c>
       <c r="N19">
-        <v>0.001033057851239669</v>
+        <v>0.0008920606601248885</v>
       </c>
       <c r="O19">
-        <v>0.07541322314049587</v>
+        <v>0.07582515611061552</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1022727272727273</v>
+        <v>0.1034790365744871</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Southern Ill._A.xlsx
+++ b/team_specific_matrix/Southern Ill._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1690647482014389</v>
+        <v>0.1644295302013423</v>
       </c>
       <c r="C2">
-        <v>0.6510791366906474</v>
+        <v>0.6543624161073825</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01438848920863309</v>
+        <v>0.01342281879194631</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1007194244604317</v>
+        <v>0.09731543624161074</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06474820143884892</v>
+        <v>0.07046979865771812</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04166666666666666</v>
+        <v>0.04807692307692308</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03125</v>
+        <v>0.03365384615384615</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.78125</v>
+        <v>0.7644230769230769</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1458333333333333</v>
+        <v>0.1538461538461539</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05714285714285714</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5714285714285714</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3714285714285714</v>
+        <v>0.3513513513513514</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04803493449781659</v>
+        <v>0.05220883534136546</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.004366812227074236</v>
+        <v>0.004016064257028112</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0611353711790393</v>
+        <v>0.06024096385542169</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2969432314410481</v>
+        <v>0.2931726907630522</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01746724890829694</v>
+        <v>0.01606425702811245</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1834061135371179</v>
+        <v>0.1847389558232932</v>
       </c>
       <c r="R6">
-        <v>0.07860262008733625</v>
+        <v>0.07630522088353414</v>
       </c>
       <c r="S6">
-        <v>0.3100436681222707</v>
+        <v>0.3132530120481928</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.138121546961326</v>
+        <v>0.1377551020408163</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.005524861878453038</v>
+        <v>0.00510204081632653</v>
       </c>
       <c r="E7">
-        <v>0.005524861878453038</v>
+        <v>0.00510204081632653</v>
       </c>
       <c r="F7">
-        <v>0.08287292817679558</v>
+        <v>0.08673469387755102</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1104972375690608</v>
+        <v>0.1122448979591837</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02209944751381215</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1602209944751381</v>
+        <v>0.1683673469387755</v>
       </c>
       <c r="R7">
-        <v>0.06629834254143646</v>
+        <v>0.0663265306122449</v>
       </c>
       <c r="S7">
-        <v>0.4088397790055249</v>
+        <v>0.3979591836734694</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1074561403508772</v>
+        <v>0.1075050709939148</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01754385964912281</v>
+        <v>0.01825557809330629</v>
       </c>
       <c r="E8">
-        <v>0.008771929824561403</v>
+        <v>0.008113590263691683</v>
       </c>
       <c r="F8">
-        <v>0.05701754385964912</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08333333333333333</v>
+        <v>0.08113590263691683</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0131578947368421</v>
+        <v>0.01217038539553753</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1776315789473684</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="R8">
-        <v>0.1140350877192982</v>
+        <v>0.1135902636916836</v>
       </c>
       <c r="S8">
-        <v>0.4210526315789473</v>
+        <v>0.4279918864097363</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1029411764705882</v>
+        <v>0.1103448275862069</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.006896551724137931</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1029411764705882</v>
+        <v>0.09655172413793103</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1029411764705882</v>
+        <v>0.09655172413793103</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.007352941176470588</v>
+        <v>0.006896551724137931</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1838235294117647</v>
+        <v>0.1793103448275862</v>
       </c>
       <c r="R9">
-        <v>0.08088235294117647</v>
+        <v>0.07586206896551724</v>
       </c>
       <c r="S9">
-        <v>0.4191176470588235</v>
+        <v>0.4275862068965517</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1129452649869679</v>
+        <v>0.1121951219512195</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02258905299739357</v>
+        <v>0.02113821138211382</v>
       </c>
       <c r="E10">
-        <v>0.0008688097306689834</v>
+        <v>0.0008130081300813008</v>
       </c>
       <c r="F10">
-        <v>0.0686359687228497</v>
+        <v>0.06829268292682927</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09817549956559514</v>
+        <v>0.09918699186991869</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01824500434404865</v>
+        <v>0.01869918699186992</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2067767158992181</v>
+        <v>0.2056910569105691</v>
       </c>
       <c r="R10">
-        <v>0.09643788010425716</v>
+        <v>0.09674796747967479</v>
       </c>
       <c r="S10">
-        <v>0.3753258036490009</v>
+        <v>0.3772357723577236</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1398601398601399</v>
+        <v>0.132258064516129</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1188811188811189</v>
+        <v>0.1161290322580645</v>
       </c>
       <c r="K11">
-        <v>0.1853146853146853</v>
+        <v>0.1806451612903226</v>
       </c>
       <c r="L11">
-        <v>0.5454545454545454</v>
+        <v>0.5612903225806452</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01048951048951049</v>
+        <v>0.00967741935483871</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7295597484276729</v>
+        <v>0.7344632768361582</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2264150943396226</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.03144654088050314</v>
+        <v>0.02824858757062147</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01257861635220126</v>
+        <v>0.01694915254237288</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6326530612244898</v>
+        <v>0.6274509803921569</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3265306122448979</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04081632653061224</v>
+        <v>0.0392156862745098</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0303030303030303</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1861471861471861</v>
+        <v>0.1814516129032258</v>
       </c>
       <c r="I15">
-        <v>0.07792207792207792</v>
+        <v>0.07661290322580645</v>
       </c>
       <c r="J15">
-        <v>0.3203463203463203</v>
+        <v>0.3266129032258064</v>
       </c>
       <c r="K15">
-        <v>0.06493506493506493</v>
+        <v>0.06854838709677419</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.008658008658008658</v>
+        <v>0.008064516129032258</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.09956709956709957</v>
+        <v>0.1008064516129032</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2121212121212121</v>
+        <v>0.2056451612903226</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02538071065989848</v>
+        <v>0.02884615384615385</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2182741116751269</v>
+        <v>0.2259615384615385</v>
       </c>
       <c r="I16">
-        <v>0.05076142131979695</v>
+        <v>0.05288461538461538</v>
       </c>
       <c r="J16">
-        <v>0.3705583756345178</v>
+        <v>0.3653846153846154</v>
       </c>
       <c r="K16">
-        <v>0.1218274111675127</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03045685279187817</v>
+        <v>0.02884615384615385</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07614213197969544</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1065989847715736</v>
+        <v>0.1057692307692308</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0267639902676399</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.218978102189781</v>
+        <v>0.2214611872146119</v>
       </c>
       <c r="I17">
-        <v>0.06569343065693431</v>
+        <v>0.06164383561643835</v>
       </c>
       <c r="J17">
-        <v>0.413625304136253</v>
+        <v>0.4155251141552511</v>
       </c>
       <c r="K17">
-        <v>0.1070559610705596</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0194647201946472</v>
+        <v>0.0182648401826484</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05596107055961071</v>
+        <v>0.0547945205479452</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09245742092457421</v>
+        <v>0.091324200913242</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.004901960784313725</v>
+        <v>0.004587155963302753</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.196078431372549</v>
+        <v>0.1972477064220184</v>
       </c>
       <c r="I18">
-        <v>0.08333333333333333</v>
+        <v>0.07798165137614679</v>
       </c>
       <c r="J18">
-        <v>0.3333333333333333</v>
+        <v>0.3532110091743119</v>
       </c>
       <c r="K18">
-        <v>0.1323529411764706</v>
+        <v>0.1238532110091743</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02941176470588235</v>
+        <v>0.03669724770642202</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1274509803921569</v>
+        <v>0.1192660550458716</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09313725490196079</v>
+        <v>0.0871559633027523</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0231935771632471</v>
+        <v>0.02384868421052632</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2185548617305977</v>
+        <v>0.21875</v>
       </c>
       <c r="I19">
-        <v>0.05798394290811775</v>
+        <v>0.05921052631578947</v>
       </c>
       <c r="J19">
-        <v>0.3853702051739518</v>
+        <v>0.375</v>
       </c>
       <c r="K19">
-        <v>0.1034790365744871</v>
+        <v>0.1077302631578947</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0312221231043711</v>
+        <v>0.0287828947368421</v>
       </c>
       <c r="N19">
-        <v>0.0008920606601248885</v>
+        <v>0.0008223684210526315</v>
       </c>
       <c r="O19">
-        <v>0.07582515611061552</v>
+        <v>0.078125</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1034790365744871</v>
+        <v>0.1077302631578947</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Southern Ill._A.xlsx
+++ b/team_specific_matrix/Southern Ill._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1644295302013423</v>
+        <v>0.1618122977346278</v>
       </c>
       <c r="C2">
-        <v>0.6543624161073825</v>
+        <v>0.6601941747572816</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01342281879194631</v>
+        <v>0.01294498381877023</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.09731543624161074</v>
+        <v>0.0970873786407767</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07046979865771812</v>
+        <v>0.06796116504854369</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04807692307692308</v>
+        <v>0.04608294930875576</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03365384615384615</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7644230769230769</v>
+        <v>0.7649769585253456</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1538461538461539</v>
+        <v>0.1566820276497696</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05220883534136546</v>
+        <v>0.05</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.004016064257028112</v>
+        <v>0.003846153846153846</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06024096385542169</v>
+        <v>0.06923076923076923</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2931726907630522</v>
+        <v>0.2884615384615384</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01606425702811245</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1847389558232932</v>
+        <v>0.1884615384615385</v>
       </c>
       <c r="R6">
-        <v>0.07630522088353414</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="S6">
-        <v>0.3132530120481928</v>
+        <v>0.3076923076923077</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1377551020408163</v>
+        <v>0.1346153846153846</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.00510204081632653</v>
+        <v>0.004807692307692308</v>
       </c>
       <c r="E7">
-        <v>0.00510204081632653</v>
+        <v>0.004807692307692308</v>
       </c>
       <c r="F7">
-        <v>0.08673469387755102</v>
+        <v>0.08653846153846154</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1122448979591837</v>
+        <v>0.1201923076923077</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02040816326530612</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1683673469387755</v>
+        <v>0.1730769230769231</v>
       </c>
       <c r="R7">
-        <v>0.0663265306122449</v>
+        <v>0.0673076923076923</v>
       </c>
       <c r="S7">
-        <v>0.3979591836734694</v>
+        <v>0.3894230769230769</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1075050709939148</v>
+        <v>0.111545988258317</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01825557809330629</v>
+        <v>0.01761252446183953</v>
       </c>
       <c r="E8">
-        <v>0.008113590263691683</v>
+        <v>0.007827788649706457</v>
       </c>
       <c r="F8">
-        <v>0.05882352941176471</v>
+        <v>0.06262230919765166</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08113590263691683</v>
+        <v>0.08023483365949119</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01217038539553753</v>
+        <v>0.01174168297455969</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1724137931034483</v>
+        <v>0.1741682974559687</v>
       </c>
       <c r="R8">
-        <v>0.1135902636916836</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="S8">
-        <v>0.4279918864097363</v>
+        <v>0.4246575342465753</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1103448275862069</v>
+        <v>0.1184210526315789</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.006896551724137931</v>
+        <v>0.006578947368421052</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.09655172413793103</v>
+        <v>0.09210526315789473</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09655172413793103</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.006896551724137931</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1793103448275862</v>
+        <v>0.1710526315789474</v>
       </c>
       <c r="R9">
-        <v>0.07586206896551724</v>
+        <v>0.07236842105263158</v>
       </c>
       <c r="S9">
-        <v>0.4275862068965517</v>
+        <v>0.4210526315789473</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1121951219512195</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02113821138211382</v>
+        <v>0.02048857368006304</v>
       </c>
       <c r="E10">
-        <v>0.0008130081300813008</v>
+        <v>0.0007880220646178094</v>
       </c>
       <c r="F10">
-        <v>0.06829268292682927</v>
+        <v>0.0677698975571316</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09918699186991869</v>
+        <v>0.1000788022064618</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01869918699186992</v>
+        <v>0.01812450748620961</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2056910569105691</v>
+        <v>0.2040977147360126</v>
       </c>
       <c r="R10">
-        <v>0.09674796747967479</v>
+        <v>0.09771473601260836</v>
       </c>
       <c r="S10">
-        <v>0.3772357723577236</v>
+        <v>0.3798266351457841</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.132258064516129</v>
+        <v>0.1303030303030303</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1161290322580645</v>
+        <v>0.1151515151515152</v>
       </c>
       <c r="K11">
-        <v>0.1806451612903226</v>
+        <v>0.1787878787878788</v>
       </c>
       <c r="L11">
-        <v>0.5612903225806452</v>
+        <v>0.5636363636363636</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.00967741935483871</v>
+        <v>0.01212121212121212</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7344632768361582</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2203389830508475</v>
+        <v>0.2157894736842105</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.02824858757062147</v>
+        <v>0.03157894736842105</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01694915254237288</v>
+        <v>0.01578947368421053</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03225806451612903</v>
+        <v>0.03149606299212598</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1814516129032258</v>
+        <v>0.1850393700787402</v>
       </c>
       <c r="I15">
-        <v>0.07661290322580645</v>
+        <v>0.07874015748031496</v>
       </c>
       <c r="J15">
-        <v>0.3266129032258064</v>
+        <v>0.3188976377952756</v>
       </c>
       <c r="K15">
-        <v>0.06854838709677419</v>
+        <v>0.07086614173228346</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.008064516129032258</v>
+        <v>0.007874015748031496</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1008064516129032</v>
+        <v>0.09842519685039371</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2056451612903226</v>
+        <v>0.2086614173228346</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02884615384615385</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2259615384615385</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="I16">
-        <v>0.05288461538461538</v>
+        <v>0.05092592592592592</v>
       </c>
       <c r="J16">
-        <v>0.3653846153846154</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="K16">
-        <v>0.1153846153846154</v>
+        <v>0.1157407407407407</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02884615384615385</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07692307692307693</v>
+        <v>0.07870370370370371</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1057692307692308</v>
+        <v>0.1064814814814815</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0273972602739726</v>
+        <v>0.02863436123348018</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2214611872146119</v>
+        <v>0.2180616740088106</v>
       </c>
       <c r="I17">
-        <v>0.06164383561643835</v>
+        <v>0.06167400881057269</v>
       </c>
       <c r="J17">
-        <v>0.4155251141552511</v>
+        <v>0.4096916299559472</v>
       </c>
       <c r="K17">
-        <v>0.1095890410958904</v>
+        <v>0.118942731277533</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0182648401826484</v>
+        <v>0.01762114537444934</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0547945205479452</v>
+        <v>0.05506607929515418</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.091324200913242</v>
+        <v>0.09030837004405286</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.004587155963302753</v>
+        <v>0.004444444444444444</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1972477064220184</v>
+        <v>0.1911111111111111</v>
       </c>
       <c r="I18">
-        <v>0.07798165137614679</v>
+        <v>0.08444444444444445</v>
       </c>
       <c r="J18">
-        <v>0.3532110091743119</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="K18">
-        <v>0.1238532110091743</v>
+        <v>0.12</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03669724770642202</v>
+        <v>0.03555555555555556</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1192660550458716</v>
+        <v>0.1155555555555556</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.0871559633027523</v>
+        <v>0.09333333333333334</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02384868421052632</v>
+        <v>0.02307080350039777</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.21875</v>
+        <v>0.2219570405727924</v>
       </c>
       <c r="I19">
-        <v>0.05921052631578947</v>
+        <v>0.05966587112171837</v>
       </c>
       <c r="J19">
-        <v>0.375</v>
+        <v>0.3723150357995227</v>
       </c>
       <c r="K19">
-        <v>0.1077302631578947</v>
+        <v>0.111376292760541</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0287828947368421</v>
+        <v>0.02784407319013524</v>
       </c>
       <c r="N19">
-        <v>0.0008223684210526315</v>
+        <v>0.0007955449482895784</v>
       </c>
       <c r="O19">
-        <v>0.078125</v>
+        <v>0.07716785998408911</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1077302631578947</v>
+        <v>0.1058074781225139</v>
       </c>
     </row>
   </sheetData>
